--- a/dags/files_pami/TerapiasDomi.xlsx
+++ b/dags/files_pami/TerapiasDomi.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/DOMI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinicos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{6B972476-2650-45EB-834C-459E3BBF69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7156203-8AAE-4A21-9059-A0A237AAABD3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C980B36-E729-4E7D-ADF1-11149FD88332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{92DDBD9F-D42D-431C-8C8F-AA85B0C9E8F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{92DDBD9F-D42D-431C-8C8F-AA85B0C9E8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$53</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="7">
   <si>
     <t>Fecha</t>
   </si>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFFEA85-3057-4E8D-A93E-97699CD14643}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,49 +504,578 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44986</v>
+        <v>44652</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1356</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>44986</v>
+        <v>44652</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44986</v>
+        <v>44652</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>44986</v>
+        <v>44652</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44682</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44682</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44682</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44682</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44713</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44713</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44713</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44713</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44743</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44743</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44743</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44743</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44774</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44774</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44774</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44774</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44805</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>44805</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>44805</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>44805</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>44896</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>44896</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>44896</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>44896</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
         <v>152</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C53" xr:uid="{5AFFEA85-3057-4E8D-A93E-97699CD14643}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -729,13 +1261,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F25DFA60-3450-4C5D-950B-DE2E1A37CA47}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F39D7FF2-056A-49C3-BB32-BD8E871927B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE989B8-8FA0-4989-BA83-8E0212D5948F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B1859FE-4F15-4338-BA7B-D899B1909215}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E38015DD-DBE4-4581-A848-A258085C6272}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B24906-F7D8-4652-BEFE-E60D08220FD9}"/>
 </file>
--- a/dags/files_pami/TerapiasDomi.xlsx
+++ b/dags/files_pami/TerapiasDomi.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinicos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/DOMI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C980B36-E729-4E7D-ADF1-11149FD88332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{6B972476-2650-45EB-834C-459E3BBF69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25C25EA-8160-47C1-AE23-5C172754F16C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{92DDBD9F-D42D-431C-8C8F-AA85B0C9E8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$53</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Fecha</t>
   </si>
@@ -480,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFFEA85-3057-4E8D-A93E-97699CD14643}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,578 +501,49 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44652</v>
+        <v>45047</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>44652</v>
+        <v>45047</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44652</v>
+        <v>45047</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>44652</v>
+        <v>45047</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44682</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>44682</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44682</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>44682</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44713</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>44713</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44713</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>44713</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44743</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>44743</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44743</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>44743</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44774</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>44774</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44774</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>44774</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>44805</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>44805</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>44805</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>44805</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>44835</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>44835</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>44835</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>44835</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>44866</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>44866</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>44866</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>44866</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>44896</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>44896</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>44896</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>44896</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>44927</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>44927</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>44927</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>44927</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>44958</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>44958</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>44958</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>44958</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>44986</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>44986</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>44986</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>44986</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>45017</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>45017</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>45017</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>45017</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C53" xr:uid="{5AFFEA85-3057-4E8D-A93E-97699CD14643}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1254,20 +722,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D81A15A5-DCD7-48F2-A115-96E58F75DBA4}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F39D7FF2-056A-49C3-BB32-BD8E871927B2}"/>
-</file>
-
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B1859FE-4F15-4338-BA7B-D899B1909215}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B24906-F7D8-4652-BEFE-E60D08220FD9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BFF5769-54B7-48E5-BFE6-FEA49686EBA3}"/>
 </file>
--- a/dags/files_pami/TerapiasDomi.xlsx
+++ b/dags/files_pami/TerapiasDomi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/DOMI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{6B972476-2650-45EB-834C-459E3BBF69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25C25EA-8160-47C1-AE23-5C172754F16C}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{6B972476-2650-45EB-834C-459E3BBF69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01191599-29D0-4575-9132-AA08A40D4B13}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{92DDBD9F-D42D-431C-8C8F-AA85B0C9E8F8}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,46 +501,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1280</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>171</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -549,8 +549,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E8AAD53D957193499A95B0822EE92604" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33b02bf87a1dd6f4b3a4b5e0f725ed7a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b848449e-c9d3-4969-a575-ff0d96471e4b" xmlns:ns3="ac8deb47-86bc-4260-8fcd-a6158e6e95f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6d66165c6d3d4cf8e0bc57ff34d5fa9" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E8AAD53D957193499A95B0822EE92604" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="64521337f70ab7452aeeac0760611e10">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b848449e-c9d3-4969-a575-ff0d96471e4b" xmlns:ns3="ac8deb47-86bc-4260-8fcd-a6158e6e95f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bab967c49d094239a50a0e5887e9ad5e" ns2:_="" ns3:_="">
     <xsd:import namespace="b848449e-c9d3-4969-a575-ff0d96471e4b"/>
     <xsd:import namespace="ac8deb47-86bc-4260-8fcd-a6158e6e95f4"/>
     <xsd:element name="properties">
@@ -563,6 +563,7 @@
                 <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -611,6 +612,11 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -723,9 +729,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D81A15A5-DCD7-48F2-A115-96E58F75DBA4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC1E0660-CA8C-498F-BB36-A0CA3C9CCF66}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BFF5769-54B7-48E5-BFE6-FEA49686EBA3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D780BE50-18DF-4E1E-92C1-D3394C9899B4}"/>
 </file>
--- a/dags/files_pami/TerapiasDomi.xlsx
+++ b/dags/files_pami/TerapiasDomi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/DOMI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{6B972476-2650-45EB-834C-459E3BBF69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01191599-29D0-4575-9132-AA08A40D4B13}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{6B972476-2650-45EB-834C-459E3BBF69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE698423-248F-4BE0-A075-1000654297C1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{92DDBD9F-D42D-431C-8C8F-AA85B0C9E8F8}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,46 +501,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1381</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>209</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -729,9 +729,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC1E0660-CA8C-498F-BB36-A0CA3C9CCF66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D773EB3-CE2B-4475-B557-47B8DF52AF0C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D780BE50-18DF-4E1E-92C1-D3394C9899B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD5F3BA9-4B66-4D36-BF9F-2E7E4FD9FC39}"/>
 </file>
--- a/dags/files_pami/TerapiasDomi.xlsx
+++ b/dags/files_pami/TerapiasDomi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/DOMI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{6B972476-2650-45EB-834C-459E3BBF69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE698423-248F-4BE0-A075-1000654297C1}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{6B972476-2650-45EB-834C-459E3BBF69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59B51E5F-87B7-4593-97D4-3341F7656E60}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{92DDBD9F-D42D-431C-8C8F-AA85B0C9E8F8}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,46 +501,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1485</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>154</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>280</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>154</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -729,9 +729,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D773EB3-CE2B-4475-B557-47B8DF52AF0C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9B1E666-A035-4395-9FCE-7B0DF4122DCE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD5F3BA9-4B66-4D36-BF9F-2E7E4FD9FC39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47AA40F3-EB79-4A3D-88A0-542F91DDE506}"/>
 </file>
--- a/dags/files_pami/TerapiasDomi.xlsx
+++ b/dags/files_pami/TerapiasDomi.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/DOMI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinicos\OneDrive - CLINICOS PROGRAMAS DE ATENCION INTEGRAL SAS IPS\GESTIÓN DE TABLEROS\ACTUALIZACION PAMI Y CARTAGENA\DOMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{6B972476-2650-45EB-834C-459E3BBF69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59B51E5F-87B7-4593-97D4-3341F7656E60}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E3DB03-8646-48C6-B439-E1CA1C2991A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{92DDBD9F-D42D-431C-8C8F-AA85B0C9E8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -483,12 +483,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>45139</v>
       </c>
@@ -510,7 +510,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>45139</v>
       </c>
@@ -518,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>836</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>45139</v>
       </c>
@@ -529,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1865</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>45139</v>
       </c>
@@ -540,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>869</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -549,6 +549,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E8AAD53D957193499A95B0822EE92604" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="64521337f70ab7452aeeac0760611e10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b848449e-c9d3-4969-a575-ff0d96471e4b" xmlns:ns3="ac8deb47-86bc-4260-8fcd-a6158e6e95f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bab967c49d094239a50a0e5887e9ad5e" ns2:_="" ns3:_="">
     <xsd:import namespace="b848449e-c9d3-4969-a575-ff0d96471e4b"/>
@@ -719,19 +728,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9B1E666-A035-4395-9FCE-7B0DF4122DCE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91A3489-C7E9-4026-9E26-46E3D2077E1C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47AA40F3-EB79-4A3D-88A0-542F91DDE506}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2C100DA-CAE7-431C-9519-D467025688B5}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E48649F2-B20F-4E4B-8137-C051F6519A2E}"/>
 </file>
--- a/dags/files_pami/TerapiasDomi.xlsx
+++ b/dags/files_pami/TerapiasDomi.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinicos\OneDrive - CLINICOS PROGRAMAS DE ATENCION INTEGRAL SAS IPS\GESTIÓN DE TABLEROS\ACTUALIZACION PAMI Y CARTAGENA\DOMI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/DOMI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E3DB03-8646-48C6-B439-E1CA1C2991A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="14_{65EFD1F2-FE47-4D8B-B8CC-90B525028BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FA8F45A-5ED3-4A7F-91BA-6A9215503E34}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{92DDBD9F-D42D-431C-8C8F-AA85B0C9E8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -480,15 +480,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,48 +499,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1542</v>
+        <v>1457</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>364</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -549,15 +549,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E8AAD53D957193499A95B0822EE92604" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="64521337f70ab7452aeeac0760611e10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b848449e-c9d3-4969-a575-ff0d96471e4b" xmlns:ns3="ac8deb47-86bc-4260-8fcd-a6158e6e95f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bab967c49d094239a50a0e5887e9ad5e" ns2:_="" ns3:_="">
     <xsd:import namespace="b848449e-c9d3-4969-a575-ff0d96471e4b"/>
@@ -728,20 +719,19 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91A3489-C7E9-4026-9E26-46E3D2077E1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985B2052-A2FE-474B-8964-B9517386CD0B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2C100DA-CAE7-431C-9519-D467025688B5}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E48649F2-B20F-4E4B-8137-C051F6519A2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F6EFF8F-1232-4535-8D33-9494759BD64C}"/>
 </file>
--- a/dags/files_pami/TerapiasDomi.xlsx
+++ b/dags/files_pami/TerapiasDomi.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/DOMI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="14_{65EFD1F2-FE47-4D8B-B8CC-90B525028BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FA8F45A-5ED3-4A7F-91BA-6A9215503E34}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="14_{65EFD1F2-FE47-4D8B-B8CC-90B525028BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F09660E-7FC0-46FB-8949-C7BBB3ED5202}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{92DDBD9F-D42D-431C-8C8F-AA85B0C9E8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,46 +501,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1457</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>321</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -729,9 +729,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985B2052-A2FE-474B-8964-B9517386CD0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FCA2EC1-CF2B-4C5B-AF68-4BC654EAE8E9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F6EFF8F-1232-4535-8D33-9494759BD64C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13206542-A9A0-4E36-AD16-1F5097578146}"/>
 </file>